--- a/simulated_data/10nodes_20len_trial6.xlsx
+++ b/simulated_data/10nodes_20len_trial6.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.328661802925999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.328719357450396</v>
+        <v>3.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.385</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.695</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.765</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.995</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.921683667986328</v>
+        <v>3.22</v>
       </c>
       <c r="C3" t="n">
-        <v>4.921625480432049</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.765</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.68</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8541838474385405</v>
+        <v>14.385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8539450904031235</v>
+        <v>8.390000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.485</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.734999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.205</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7744345586793354</v>
+        <v>14.47</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7744964697561371</v>
+        <v>16.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.495</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.935</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.957222847795483</v>
+        <v>16.29</v>
       </c>
       <c r="C6" t="n">
-        <v>1.957246788407395</v>
+        <v>23.45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.065</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.865</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.25</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5361064116936971</v>
+        <v>15.695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5358534735280513</v>
+        <v>15.14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.065</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.535</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.662913731064375</v>
+        <v>6.565</v>
       </c>
       <c r="C8" t="n">
-        <v>2.662885687553143</v>
+        <v>2.585</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.485</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.865</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.535</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.29</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.925946474641031</v>
+        <v>15.765</v>
       </c>
       <c r="C9" t="n">
-        <v>2.925897119226515</v>
+        <v>11.89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.734999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.495</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.455</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7083258941087025</v>
+        <v>18.38</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7081358075023979</v>
+        <v>16.765</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.205</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.455</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.865</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>14.995</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>10.68</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.935</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.865</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.03</v>
+        <v>4.19</v>
       </c>
       <c r="D2" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="E2" t="n">
-        <v>14.75</v>
+        <v>15.74</v>
       </c>
       <c r="F2" t="n">
-        <v>19.23</v>
+        <v>19.13</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="H2" t="n">
-        <v>7.55</v>
+        <v>7.58</v>
       </c>
       <c r="I2" t="n">
-        <v>17.22</v>
+        <v>17.4</v>
       </c>
       <c r="J2" t="n">
-        <v>16.88</v>
+        <v>17.31</v>
       </c>
       <c r="K2" t="n">
-        <v>11.91</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.03</v>
+        <v>4.19</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10.69</v>
+        <v>8.16</v>
       </c>
       <c r="E3" t="n">
-        <v>12.72</v>
+        <v>11.72</v>
       </c>
       <c r="F3" t="n">
-        <v>18.75</v>
+        <v>16.25</v>
       </c>
       <c r="G3" t="n">
-        <v>12.93</v>
+        <v>10.25</v>
       </c>
       <c r="H3" t="n">
-        <v>4.77</v>
+        <v>3.39</v>
       </c>
       <c r="I3" t="n">
-        <v>17.01</v>
+        <v>14.61</v>
       </c>
       <c r="J3" t="n">
-        <v>14.78</v>
+        <v>13.27</v>
       </c>
       <c r="K3" t="n">
-        <v>11.07</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="C4" t="n">
-        <v>10.69</v>
+        <v>8.16</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.51</v>
+        <v>4.24</v>
       </c>
       <c r="F4" t="n">
-        <v>8.65</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
-        <v>7.89</v>
+        <v>5.77</v>
       </c>
       <c r="I4" t="n">
-        <v>7.66</v>
+        <v>7.64</v>
       </c>
       <c r="J4" t="n">
-        <v>6.39</v>
+        <v>5.77</v>
       </c>
       <c r="K4" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.75</v>
+        <v>15.74</v>
       </c>
       <c r="C5" t="n">
-        <v>12.72</v>
+        <v>11.72</v>
       </c>
       <c r="D5" t="n">
-        <v>4.51</v>
+        <v>4.24</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.55</v>
+        <v>9.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5.03</v>
+        <v>4.11</v>
       </c>
       <c r="H5" t="n">
-        <v>8.539999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="I5" t="n">
-        <v>10.56</v>
+        <v>8.41</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="K5" t="n">
-        <v>6.08</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.23</v>
+        <v>19.13</v>
       </c>
       <c r="C6" t="n">
-        <v>18.75</v>
+        <v>16.25</v>
       </c>
       <c r="D6" t="n">
-        <v>8.65</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>10.55</v>
+        <v>9.02</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.42</v>
+        <v>6.64</v>
       </c>
       <c r="H6" t="n">
-        <v>16.53</v>
+        <v>14.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>10.82</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>7.75</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="C7" t="n">
-        <v>12.93</v>
+        <v>10.25</v>
       </c>
       <c r="D7" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="E7" t="n">
-        <v>5.03</v>
+        <v>4.11</v>
       </c>
       <c r="F7" t="n">
-        <v>6.42</v>
+        <v>6.64</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.18</v>
+        <v>8.09</v>
       </c>
       <c r="I7" t="n">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>6.32</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.24</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.55</v>
+        <v>7.58</v>
       </c>
       <c r="C8" t="n">
-        <v>4.77</v>
+        <v>3.39</v>
       </c>
       <c r="D8" t="n">
-        <v>7.89</v>
+        <v>5.77</v>
       </c>
       <c r="E8" t="n">
-        <v>8.539999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="F8" t="n">
-        <v>16.53</v>
+        <v>14.6</v>
       </c>
       <c r="G8" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="J8" t="n">
         <v>10.18</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.45</v>
-      </c>
       <c r="K8" t="n">
-        <v>8.93</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.22</v>
+        <v>17.4</v>
       </c>
       <c r="C9" t="n">
-        <v>17.01</v>
+        <v>14.61</v>
       </c>
       <c r="D9" t="n">
-        <v>7.66</v>
+        <v>7.64</v>
       </c>
       <c r="E9" t="n">
-        <v>10.56</v>
+        <v>8.41</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>15.31</v>
+        <v>13.12</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.31</v>
+        <v>8.81</v>
       </c>
       <c r="K9" t="n">
-        <v>6.38</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.88</v>
+        <v>17.31</v>
       </c>
       <c r="C10" t="n">
-        <v>14.78</v>
+        <v>13.27</v>
       </c>
       <c r="D10" t="n">
-        <v>6.39</v>
+        <v>5.77</v>
       </c>
       <c r="E10" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="F10" t="n">
-        <v>10.82</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>6.32</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>10.45</v>
+        <v>10.18</v>
       </c>
       <c r="I10" t="n">
-        <v>11.31</v>
+        <v>8.81</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.82</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.91</v>
+        <v>12.4</v>
       </c>
       <c r="C11" t="n">
-        <v>11.07</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
       <c r="E11" t="n">
-        <v>6.08</v>
+        <v>4.32</v>
       </c>
       <c r="F11" t="n">
-        <v>7.75</v>
+        <v>8.07</v>
       </c>
       <c r="G11" t="n">
-        <v>2.24</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>8.93</v>
+        <v>6.59</v>
       </c>
       <c r="I11" t="n">
-        <v>6.38</v>
+        <v>6.73</v>
       </c>
       <c r="J11" t="n">
-        <v>7.82</v>
+        <v>5.76</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02420425157981386</v>
+        <v>12.50679562277123</v>
       </c>
       <c r="C2" t="n">
-        <v>10.97112811291353</v>
+        <v>-14.72447014957833</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.549933341076464</v>
+        <v>9.25082657884273</v>
       </c>
       <c r="C3" t="n">
-        <v>9.377560404451</v>
+        <v>-12.08069386082329</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.09705948797692866</v>
+        <v>6.682081754753415</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9749839109986438</v>
+        <v>-4.336376210566882</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.772453645790122</v>
+        <v>3.069656427960878</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.284379228869511</v>
+        <v>-2.124396203962926</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.977135240049195</v>
+        <v>9.536355556191944</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.319313803634211</v>
+        <v>4.169634688445989</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.251495641675595</v>
+        <v>7.182010223691274</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.978309192905099</v>
+        <v>-2.041983389640894</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.832417023151546</v>
+        <v>6.490651268192818</v>
       </c>
       <c r="C8" t="n">
-        <v>5.189371918624361</v>
+        <v>-10.1060703418373</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.664943946778262</v>
+        <v>10.0887607280437</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.919813228178802</v>
+        <v>2.505760562829681</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.64483424868384</v>
+        <v>1.992466529662084</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.254508952645507</v>
+        <v>-0.9761200469122342</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.784799690642177</v>
+        <v>7.152364795943941</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.806752118757124</v>
+        <v>-3.544364157532952</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="n">
-        <v>11.48</v>
+        <v>9.16</v>
       </c>
       <c r="E2" t="n">
-        <v>13.94</v>
+        <v>11.46</v>
       </c>
       <c r="F2" t="n">
-        <v>16.7</v>
+        <v>7.6</v>
       </c>
       <c r="G2" t="n">
-        <v>10.6</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>8.720000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>17.29</v>
+        <v>6.23</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>11.37</v>
       </c>
       <c r="K2" t="n">
-        <v>10.6</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.880000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="E3" t="n">
-        <v>11.91</v>
+        <v>8.06</v>
       </c>
       <c r="F3" t="n">
-        <v>15.83</v>
+        <v>4.19</v>
       </c>
       <c r="G3" t="n">
-        <v>9.01</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.25</v>
+        <v>3.19</v>
       </c>
       <c r="I3" t="n">
-        <v>16.12</v>
+        <v>2.82</v>
       </c>
       <c r="J3" t="n">
-        <v>14.67</v>
+        <v>7.96</v>
       </c>
       <c r="K3" t="n">
-        <v>9.44</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.48</v>
+        <v>9.16</v>
       </c>
       <c r="C4" t="n">
-        <v>9.880000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.79</v>
+        <v>2.3</v>
       </c>
       <c r="F4" t="n">
-        <v>7.7</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="H4" t="n">
-        <v>8.57</v>
+        <v>2.56</v>
       </c>
       <c r="I4" t="n">
-        <v>7.26</v>
+        <v>2.93</v>
       </c>
       <c r="J4" t="n">
-        <v>7.55</v>
+        <v>2.21</v>
       </c>
       <c r="K4" t="n">
-        <v>3.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.94</v>
+        <v>11.46</v>
       </c>
       <c r="C5" t="n">
-        <v>11.91</v>
+        <v>8.06</v>
       </c>
       <c r="D5" t="n">
-        <v>4.79</v>
+        <v>2.3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.48</v>
+        <v>3.86</v>
       </c>
       <c r="G5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.23</v>
       </c>
-      <c r="H5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.46</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>0.09</v>
       </c>
       <c r="K5" t="n">
-        <v>7.84</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.7</v>
+        <v>7.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.83</v>
+        <v>4.19</v>
       </c>
       <c r="D6" t="n">
-        <v>7.7</v>
+        <v>1.56</v>
       </c>
       <c r="E6" t="n">
-        <v>11.48</v>
+        <v>3.86</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.130000000000001</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="n">
-        <v>16.12</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="J6" t="n">
-        <v>12.93</v>
+        <v>3.77</v>
       </c>
       <c r="K6" t="n">
-        <v>6.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.6</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9.01</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="E7" t="n">
-        <v>5.23</v>
+        <v>1.85</v>
       </c>
       <c r="F7" t="n">
-        <v>8.130000000000001</v>
+        <v>2.01</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.99</v>
+        <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>7.84</v>
+        <v>3.38</v>
       </c>
       <c r="J7" t="n">
-        <v>8.130000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="K7" t="n">
-        <v>2.61</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.720000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="C8" t="n">
-        <v>6.25</v>
+        <v>3.19</v>
       </c>
       <c r="D8" t="n">
-        <v>8.57</v>
+        <v>2.56</v>
       </c>
       <c r="E8" t="n">
-        <v>7.7</v>
+        <v>4.86</v>
       </c>
       <c r="F8" t="n">
-        <v>16.12</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>7.99</v>
+        <v>3.01</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.83</v>
+        <v>0.37</v>
       </c>
       <c r="J8" t="n">
-        <v>9.880000000000001</v>
+        <v>4.77</v>
       </c>
       <c r="K8" t="n">
-        <v>10.02</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.29</v>
+        <v>6.23</v>
       </c>
       <c r="C9" t="n">
-        <v>16.12</v>
+        <v>2.82</v>
       </c>
       <c r="D9" t="n">
-        <v>7.26</v>
+        <v>2.93</v>
       </c>
       <c r="E9" t="n">
-        <v>10.46</v>
+        <v>5.23</v>
       </c>
       <c r="F9" t="n">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="G9" t="n">
-        <v>7.84</v>
+        <v>3.38</v>
       </c>
       <c r="H9" t="n">
-        <v>15.83</v>
+        <v>0.37</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77</v>
+        <v>5.14</v>
       </c>
       <c r="K9" t="n">
-        <v>6.68</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>11.37</v>
       </c>
       <c r="C10" t="n">
-        <v>14.67</v>
+        <v>7.96</v>
       </c>
       <c r="D10" t="n">
-        <v>7.55</v>
+        <v>2.21</v>
       </c>
       <c r="E10" t="n">
-        <v>3.05</v>
+        <v>0.09</v>
       </c>
       <c r="F10" t="n">
-        <v>12.93</v>
+        <v>3.77</v>
       </c>
       <c r="G10" t="n">
-        <v>8.130000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>9.880000000000001</v>
+        <v>4.77</v>
       </c>
       <c r="I10" t="n">
-        <v>11.77</v>
+        <v>5.14</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.46</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.6</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>9.44</v>
+        <v>5.55</v>
       </c>
       <c r="D11" t="n">
-        <v>3.05</v>
+        <v>0.21</v>
       </c>
       <c r="E11" t="n">
-        <v>7.84</v>
+        <v>2.51</v>
       </c>
       <c r="F11" t="n">
-        <v>6.39</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>2.61</v>
+        <v>0.66</v>
       </c>
       <c r="H11" t="n">
-        <v>10.02</v>
+        <v>2.35</v>
       </c>
       <c r="I11" t="n">
-        <v>6.68</v>
+        <v>2.72</v>
       </c>
       <c r="J11" t="n">
-        <v>10.46</v>
+        <v>2.42</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6364707313379943</v>
+        <v>7.328661802925999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2664641272554173</v>
+        <v>7.328719357450396</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5600824374905761</v>
+        <v>4.921683667986328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.122232093808879</v>
+        <v>4.921625480432049</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1046996345666288</v>
+        <v>0.8541838474385405</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01784974333366195</v>
+        <v>0.8539450904031235</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1066683377701378</v>
+        <v>-0.7744345586793354</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.346697757326646</v>
+        <v>-0.7744964697561371</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5067326233667385</v>
+        <v>1.957222847795483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3308567780897845</v>
+        <v>1.957246788407395</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05104597996365519</v>
+        <v>0.5361064116936971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01107986547241437</v>
+        <v>0.5358534735280513</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4165184880001645</v>
+        <v>2.662913731064375</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2870689643928988</v>
+        <v>2.662885687553143</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5502425267296276</v>
+        <v>2.925946474641031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2192612235543674</v>
+        <v>2.925897119226515</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.225370869229528</v>
+        <v>-0.7083258941087025</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5187542674019373</v>
+        <v>-0.7081358075023979</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08630671083166334</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1891184062213829</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.18</v>
+        <v>3.03</v>
       </c>
       <c r="D2" t="n">
-        <v>13.04</v>
+        <v>11.95</v>
       </c>
       <c r="E2" t="n">
-        <v>17.65</v>
+        <v>14.75</v>
       </c>
       <c r="F2" t="n">
-        <v>16.41</v>
+        <v>19.23</v>
       </c>
       <c r="G2" t="n">
-        <v>14.92</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.27</v>
+        <v>7.55</v>
       </c>
       <c r="I2" t="n">
-        <v>15.4</v>
+        <v>17.22</v>
       </c>
       <c r="J2" t="n">
-        <v>19.17</v>
+        <v>16.88</v>
       </c>
       <c r="K2" t="n">
-        <v>13.84</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.18</v>
+        <v>3.03</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.880000000000001</v>
+        <v>10.69</v>
       </c>
       <c r="E3" t="n">
-        <v>13.59</v>
+        <v>12.72</v>
       </c>
       <c r="F3" t="n">
-        <v>13.12</v>
+        <v>18.75</v>
       </c>
       <c r="G3" t="n">
-        <v>10.78</v>
+        <v>12.93</v>
       </c>
       <c r="H3" t="n">
-        <v>3.14</v>
+        <v>4.77</v>
       </c>
       <c r="I3" t="n">
-        <v>11.88</v>
+        <v>17.01</v>
       </c>
       <c r="J3" t="n">
-        <v>15.15</v>
+        <v>14.78</v>
       </c>
       <c r="K3" t="n">
-        <v>9.66</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.04</v>
+        <v>11.95</v>
       </c>
       <c r="C4" t="n">
-        <v>8.880000000000001</v>
+        <v>10.69</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.98</v>
+        <v>4.51</v>
       </c>
       <c r="F4" t="n">
-        <v>7.94</v>
+        <v>8.65</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="H4" t="n">
-        <v>5.77</v>
+        <v>7.89</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>7.66</v>
       </c>
       <c r="J4" t="n">
-        <v>6.65</v>
+        <v>6.39</v>
       </c>
       <c r="K4" t="n">
-        <v>0.96</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.65</v>
+        <v>14.75</v>
       </c>
       <c r="C5" t="n">
-        <v>13.59</v>
+        <v>12.72</v>
       </c>
       <c r="D5" t="n">
-        <v>4.98</v>
+        <v>4.51</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.4</v>
+        <v>10.55</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>5.03</v>
       </c>
       <c r="H5" t="n">
-        <v>10.45</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>5.15</v>
+        <v>10.56</v>
       </c>
       <c r="J5" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.41</v>
+        <v>19.23</v>
       </c>
       <c r="C6" t="n">
-        <v>13.12</v>
+        <v>18.75</v>
       </c>
       <c r="D6" t="n">
-        <v>7.94</v>
+        <v>8.65</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4</v>
+        <v>10.55</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.42</v>
+        <v>6.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10.53</v>
+        <v>16.53</v>
       </c>
       <c r="I6" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.48</v>
+        <v>10.82</v>
       </c>
       <c r="K6" t="n">
-        <v>8.4</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.92</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>10.78</v>
+        <v>12.93</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="E7" t="n">
-        <v>3.15</v>
+        <v>5.03</v>
       </c>
       <c r="F7" t="n">
-        <v>7.42</v>
+        <v>6.42</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.65</v>
+        <v>10.18</v>
       </c>
       <c r="I7" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.83</v>
+        <v>6.32</v>
       </c>
       <c r="K7" t="n">
-        <v>1.47</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.27</v>
+        <v>7.55</v>
       </c>
       <c r="C8" t="n">
-        <v>3.14</v>
+        <v>4.77</v>
       </c>
       <c r="D8" t="n">
-        <v>5.77</v>
+        <v>7.89</v>
       </c>
       <c r="E8" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="J8" t="n">
         <v>10.45</v>
       </c>
-      <c r="F8" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12.02</v>
-      </c>
       <c r="K8" t="n">
-        <v>6.59</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4</v>
+        <v>17.22</v>
       </c>
       <c r="C9" t="n">
-        <v>11.88</v>
+        <v>17.01</v>
       </c>
       <c r="D9" t="n">
-        <v>6.2</v>
+        <v>7.66</v>
       </c>
       <c r="E9" t="n">
-        <v>5.15</v>
+        <v>10.56</v>
       </c>
       <c r="F9" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="H9" t="n">
-        <v>9.119999999999999</v>
+        <v>15.31</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.61</v>
+        <v>11.31</v>
       </c>
       <c r="K9" t="n">
-        <v>6.67</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.17</v>
+        <v>16.88</v>
       </c>
       <c r="C10" t="n">
-        <v>15.15</v>
+        <v>14.78</v>
       </c>
       <c r="D10" t="n">
-        <v>6.65</v>
+        <v>6.39</v>
       </c>
       <c r="E10" t="n">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="F10" t="n">
-        <v>6.48</v>
+        <v>10.82</v>
       </c>
       <c r="G10" t="n">
-        <v>4.83</v>
+        <v>6.32</v>
       </c>
       <c r="H10" t="n">
-        <v>12.02</v>
+        <v>10.45</v>
       </c>
       <c r="I10" t="n">
-        <v>5.61</v>
+        <v>11.31</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.28</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.84</v>
+        <v>11.91</v>
       </c>
       <c r="C11" t="n">
-        <v>9.66</v>
+        <v>11.07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.96</v>
+        <v>1.7</v>
       </c>
       <c r="E11" t="n">
-        <v>4.61</v>
+        <v>6.08</v>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>7.75</v>
       </c>
       <c r="G11" t="n">
-        <v>1.47</v>
+        <v>2.24</v>
       </c>
       <c r="H11" t="n">
-        <v>6.59</v>
+        <v>8.93</v>
       </c>
       <c r="I11" t="n">
-        <v>6.67</v>
+        <v>6.38</v>
       </c>
       <c r="J11" t="n">
-        <v>6.28</v>
+        <v>7.82</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.03366378190163</v>
+        <v>-1.96837032509022</v>
       </c>
       <c r="C2" t="n">
-        <v>13.03609588325495</v>
+        <v>-10.79313467806552</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.10660334552779</v>
+        <v>0.8474593201902541</v>
       </c>
       <c r="C3" t="n">
-        <v>9.325729403623368</v>
+        <v>-9.681043945964181</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.062456310382291</v>
+        <v>0.07728574079142922</v>
       </c>
       <c r="C4" t="n">
-        <v>2.011965189890107</v>
+        <v>0.9767502675759071</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.807520461223413</v>
+        <v>4.294856553831547</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5814734069441297</v>
+        <v>2.563739575499028</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.288798239158808</v>
+        <v>-4.585207706958172</v>
       </c>
       <c r="C6" t="n">
-        <v>5.020425238707019</v>
+        <v>8.262830660118906</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.704090040105552</v>
+        <v>-0.7037982633240708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6537508491656498</v>
+        <v>3.152972406203356</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.059429192309164</v>
+        <v>3.836129610782253</v>
       </c>
       <c r="C8" t="n">
-        <v>6.944331088572507</v>
+        <v>-5.963719041406701</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3200858805958044</v>
+        <v>-5.687419780561342</v>
       </c>
       <c r="C9" t="n">
-        <v>4.345535835081286</v>
+        <v>6.023229719454384</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2756931192329007</v>
+        <v>5.502615509400917</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.26652419606114</v>
+        <v>4.348053827537924</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.117943924674313</v>
+        <v>-1.613550659062595</v>
       </c>
       <c r="C11" t="n">
-        <v>1.050313467622482</v>
+        <v>1.110321209046896</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001871585845947266</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001616477966308594</v>
+        <v>5.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343454122543335</v>
+        <v>10.78</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8826324939727783</v>
+        <v>13.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1172149181365967</v>
+        <v>19.23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09200525283813477</v>
+        <v>11.07</v>
       </c>
       <c r="H2" t="n">
-        <v>1.296337842941284</v>
+        <v>6.27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.1933062260929184</v>
       </c>
       <c r="C2" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9393019726858877</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.726666666666667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2828223213269496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001871585845947266</v>
+        <v>-0.6922813274334114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.1410448648689477</v>
       </c>
       <c r="C3" t="n">
-        <v>6.959999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6818885448916409</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.852777777777777</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2004245795247987</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001616477966308594</v>
+        <v>-0.583700870732521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.1465476026257547</v>
       </c>
       <c r="C4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.722772277227723</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.549111111111111</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.300639184097378</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.343454122543335</v>
+        <v>-0.03594858969718645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.2942311222071043</v>
       </c>
       <c r="C5" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9762210796915167</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.638888888888888</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5835254994970693</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8826324939727783</v>
+        <v>0.2326222119701939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.2048060516118801</v>
       </c>
       <c r="C6" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.361111111111111</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8453333333333333</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1477600832597458</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1172149181365967</v>
+        <v>0.5679977017798835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.1367213340229508</v>
       </c>
       <c r="C7" t="n">
-        <v>4.789999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.236111111111111</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.792888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3108404588583082</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.09200525283813477</v>
+        <v>-0.008715774108137111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.3787107963718463</v>
       </c>
       <c r="C8" t="n">
-        <v>6.619999999999999</v>
+        <v>-0.2996486679816189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2644098749062243</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5213086993795868</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2887806950527795</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3474939922988184</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.258583263478726</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.07016619252735276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.779999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.25</v>
       </c>
       <c r="D8" t="n">
-        <v>1.069306930693069</v>
+        <v>5.3</v>
       </c>
       <c r="E8" t="n">
-        <v>2.052222222222222</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2193969062377416</v>
+        <v>13.51</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.296337842941284</v>
+        <v>11.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.60353646301714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.86824843342746</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.83352051061927</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.78534488733393</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.96020230284241</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.32547956327443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.295492569104091</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.731318382369949</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.18627407230092</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.709799470583719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.322419722886639</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.01003912701395</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.11590008353024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.616599940981708</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.795855392307974</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.000219425648359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.231479016630797</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4874537914039031</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.522811937068509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.798074832431608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5559178363809462</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1383850395994211</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5226180942020251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.191454118102717</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1851040982669708</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03648476240866219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1436917820010425</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.4957399030177529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2806955439654097</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2622594448684473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2892872523911706</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07899302127332505</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3313929967173314</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2770829104309174</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2117892102165778</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4288295575224232</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.127849069434466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5660569183536925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.171511971026874</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.202473788027221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22.06278716884339</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.26496136875679</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.30750433928316</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.544297105066455</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.706880054993566</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.726640960817408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5.32901842421499</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.912988118485341</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-15.17839173541655</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.0465651615147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-10.78536739520562</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-4.961651910423808</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.90709551506367</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.481603561152101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-12.25993123035275</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.27698453146079</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-6.18806057968331</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.146586334938838</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.829737603323449</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.903337280981265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001688003540039062</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0001654624938964844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0001664161682128906</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.309852600097656</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9344069957733154</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2061135768890381</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3844842910766602</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.895395040512085</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02182698249816895</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06537246704101562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.17</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.94</v>
+        <v>13.37</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73</v>
+        <v>10.74</v>
       </c>
       <c r="F2" t="n">
-        <v>15.78</v>
+        <v>14.89</v>
       </c>
       <c r="G2" t="n">
-        <v>18.01</v>
+        <v>13.45</v>
       </c>
       <c r="H2" t="n">
-        <v>7.23</v>
+        <v>11.49</v>
       </c>
       <c r="I2" t="n">
-        <v>16.23</v>
+        <v>13.55</v>
       </c>
       <c r="J2" t="n">
-        <v>27.6</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>15.99</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.27</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.45</v>
+        <v>8.83</v>
       </c>
       <c r="E3" t="n">
-        <v>25.56</v>
+        <v>5.77</v>
       </c>
       <c r="F3" t="n">
-        <v>25.04</v>
+        <v>13.17</v>
       </c>
       <c r="G3" t="n">
-        <v>16.89</v>
+        <v>9.51</v>
       </c>
       <c r="H3" t="n">
-        <v>2.29</v>
+        <v>5.99</v>
       </c>
       <c r="I3" t="n">
-        <v>11.48</v>
+        <v>11.69</v>
       </c>
       <c r="J3" t="n">
-        <v>12.7</v>
+        <v>4.73</v>
       </c>
       <c r="K3" t="n">
-        <v>8.57</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.83</v>
+        <v>13.37</v>
       </c>
       <c r="C4" t="n">
-        <v>9.33</v>
+        <v>8.83</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="F4" t="n">
-        <v>10.05</v>
+        <v>8.49</v>
       </c>
       <c r="G4" t="n">
-        <v>2.54</v>
+        <v>1.96</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6.31</v>
       </c>
       <c r="I4" t="n">
-        <v>7.06</v>
+        <v>7.39</v>
       </c>
       <c r="J4" t="n">
-        <v>7.59</v>
+        <v>4.51</v>
       </c>
       <c r="K4" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.21</v>
+        <v>10.74</v>
       </c>
       <c r="C5" t="n">
-        <v>7.96</v>
+        <v>5.77</v>
       </c>
       <c r="D5" t="n">
-        <v>4.25</v>
+        <v>3.21</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.710000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.12</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6.97</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>12.12</v>
+        <v>8.84</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="K5" t="n">
-        <v>4.72</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.8</v>
+        <v>14.89</v>
       </c>
       <c r="C6" t="n">
-        <v>21.86</v>
+        <v>13.17</v>
       </c>
       <c r="D6" t="n">
-        <v>5.83</v>
+        <v>8.49</v>
       </c>
       <c r="E6" t="n">
-        <v>13.01</v>
+        <v>10.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.63</v>
+        <v>6.54</v>
       </c>
       <c r="H6" t="n">
-        <v>13.57</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J6" t="n">
-        <v>9.390000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="K6" t="n">
-        <v>9.08</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.38</v>
+        <v>13.45</v>
       </c>
       <c r="C7" t="n">
-        <v>13.39</v>
+        <v>9.51</v>
       </c>
       <c r="D7" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="E7" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>7.5</v>
+        <v>6.54</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.3</v>
+        <v>8.02</v>
       </c>
       <c r="I7" t="n">
-        <v>6.93</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.51</v>
+        <v>5.79</v>
       </c>
       <c r="K7" t="n">
-        <v>2.31</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.9</v>
+        <v>11.49</v>
       </c>
       <c r="C8" t="n">
-        <v>2.88</v>
+        <v>5.99</v>
       </c>
       <c r="D8" t="n">
-        <v>8.970000000000001</v>
+        <v>6.31</v>
       </c>
       <c r="E8" t="n">
-        <v>7.47</v>
+        <v>3.8</v>
       </c>
       <c r="F8" t="n">
-        <v>18.16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>6.77</v>
+        <v>8.02</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16.93</v>
+        <v>12.64</v>
       </c>
       <c r="J8" t="n">
-        <v>7.8</v>
+        <v>2.94</v>
       </c>
       <c r="K8" t="n">
-        <v>8.789999999999999</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3</v>
+        <v>13.55</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3</v>
+        <v>11.69</v>
       </c>
       <c r="D9" t="n">
-        <v>6.41</v>
+        <v>7.39</v>
       </c>
       <c r="E9" t="n">
-        <v>10.87</v>
+        <v>8.84</v>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>28.11</v>
+        <v>12.64</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.49</v>
+        <v>9.85</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.16</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>20.83</v>
+        <v>4.73</v>
       </c>
       <c r="D10" t="n">
-        <v>4.82</v>
+        <v>4.51</v>
       </c>
       <c r="E10" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="F10" t="n">
-        <v>10.86</v>
+        <v>11.25</v>
       </c>
       <c r="G10" t="n">
-        <v>7.94</v>
+        <v>5.79</v>
       </c>
       <c r="H10" t="n">
-        <v>10.26</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
-        <v>8.42</v>
+        <v>9.85</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.97</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>14.21</v>
       </c>
       <c r="C11" t="n">
-        <v>12.79</v>
+        <v>9.85</v>
       </c>
       <c r="D11" t="n">
-        <v>0.46</v>
+        <v>1.15</v>
       </c>
       <c r="E11" t="n">
-        <v>7.15</v>
+        <v>4.33</v>
       </c>
       <c r="F11" t="n">
-        <v>9.42</v>
+        <v>7.85</v>
       </c>
       <c r="G11" t="n">
-        <v>0.99</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>11.79</v>
+        <v>7.42</v>
       </c>
       <c r="I11" t="n">
-        <v>12.4</v>
+        <v>6.89</v>
       </c>
       <c r="J11" t="n">
-        <v>10.76</v>
+        <v>5.64</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.799469422663369</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.141189936795183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.554949348666679</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.701056582661159</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.123392594357698</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.096592374915766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9222822985622993</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.876074559792329</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.963382455732917</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.09423382545815</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.955518920692754</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.866262585237406</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.211149954516699</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.268214538760136</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.704597063149724</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.311067698435567</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3470682828346278</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.538580244726234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.21861094349125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.437352125672342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9393019726858877</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.726666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2828223213269496</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001871585845947266</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.959999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6818885448916409</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.852777777777777</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2004245795247987</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001616477966308594</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.722772277227723</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.549111111111111</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.300639184097378</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.343454122543335</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9762210796915167</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.638888888888888</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5835254994970693</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8826324939727783</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.361111111111111</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8453333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1477600832597458</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1172149181365967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4.789999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.236111111111111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.792888888888889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3108404588583082</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.09200525283813477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6.619999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.069306930693069</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.052222222222222</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2193969062377416</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.296337842941284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="D2" t="n">
-        <v>14.385</v>
+        <v>18.94</v>
       </c>
       <c r="E2" t="n">
-        <v>14.47</v>
+        <v>16.73</v>
       </c>
       <c r="F2" t="n">
-        <v>16.29</v>
+        <v>15.78</v>
       </c>
       <c r="G2" t="n">
-        <v>15.695</v>
+        <v>18.01</v>
       </c>
       <c r="H2" t="n">
-        <v>6.565</v>
+        <v>7.23</v>
       </c>
       <c r="I2" t="n">
-        <v>15.765</v>
+        <v>16.23</v>
       </c>
       <c r="J2" t="n">
-        <v>18.38</v>
+        <v>27.6</v>
       </c>
       <c r="K2" t="n">
-        <v>14.995</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.390000000000001</v>
+        <v>7.45</v>
       </c>
       <c r="E3" t="n">
-        <v>16.76</v>
+        <v>25.56</v>
       </c>
       <c r="F3" t="n">
-        <v>23.45</v>
+        <v>25.04</v>
       </c>
       <c r="G3" t="n">
-        <v>15.14</v>
+        <v>16.89</v>
       </c>
       <c r="H3" t="n">
-        <v>2.585</v>
+        <v>2.29</v>
       </c>
       <c r="I3" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="J3" t="n">
-        <v>16.765</v>
+        <v>12.7</v>
       </c>
       <c r="K3" t="n">
-        <v>10.68</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.385</v>
+        <v>9.83</v>
       </c>
       <c r="C4" t="n">
-        <v>8.390000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.785</v>
+        <v>3.32</v>
       </c>
       <c r="F4" t="n">
-        <v>7.94</v>
+        <v>10.05</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="H4" t="n">
-        <v>6.485</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>6.734999999999999</v>
+        <v>7.06</v>
       </c>
       <c r="J4" t="n">
-        <v>6.205</v>
+        <v>7.59</v>
       </c>
       <c r="K4" t="n">
-        <v>0.78</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.47</v>
+        <v>12.21</v>
       </c>
       <c r="C5" t="n">
-        <v>16.76</v>
+        <v>7.96</v>
       </c>
       <c r="D5" t="n">
-        <v>3.785</v>
+        <v>4.25</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.86</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>4.12</v>
       </c>
       <c r="H5" t="n">
-        <v>7.22</v>
+        <v>6.97</v>
       </c>
       <c r="I5" t="n">
-        <v>11.495</v>
+        <v>12.12</v>
       </c>
       <c r="J5" t="n">
-        <v>1.125</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>5.935</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.29</v>
+        <v>16.8</v>
       </c>
       <c r="C6" t="n">
-        <v>23.45</v>
+        <v>21.86</v>
       </c>
       <c r="D6" t="n">
-        <v>7.94</v>
+        <v>5.83</v>
       </c>
       <c r="E6" t="n">
-        <v>10.86</v>
+        <v>13.01</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.065</v>
+        <v>4.63</v>
       </c>
       <c r="H6" t="n">
-        <v>15.865</v>
+        <v>13.57</v>
       </c>
       <c r="I6" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="J6" t="n">
-        <v>10.125</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>9.25</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.695</v>
+        <v>13.38</v>
       </c>
       <c r="C7" t="n">
-        <v>15.14</v>
+        <v>13.39</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="E7" t="n">
-        <v>4.33</v>
+        <v>4.54</v>
       </c>
       <c r="F7" t="n">
-        <v>6.065</v>
+        <v>7.5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.535</v>
+        <v>6.3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.09</v>
+        <v>6.93</v>
       </c>
       <c r="J7" t="n">
-        <v>7.225</v>
+        <v>6.51</v>
       </c>
       <c r="K7" t="n">
-        <v>1.65</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.565</v>
+        <v>5.9</v>
       </c>
       <c r="C8" t="n">
-        <v>2.585</v>
+        <v>2.88</v>
       </c>
       <c r="D8" t="n">
-        <v>6.485</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>7.22</v>
+        <v>7.47</v>
       </c>
       <c r="F8" t="n">
-        <v>15.865</v>
+        <v>18.16</v>
       </c>
       <c r="G8" t="n">
-        <v>6.535</v>
+        <v>6.77</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.52</v>
+        <v>16.93</v>
       </c>
       <c r="J8" t="n">
-        <v>9.029999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>10.29</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.765</v>
+        <v>15.3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.89</v>
+        <v>12.3</v>
       </c>
       <c r="D9" t="n">
-        <v>6.734999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="E9" t="n">
-        <v>11.495</v>
+        <v>10.87</v>
       </c>
       <c r="F9" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
-        <v>5.09</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>22.52</v>
+        <v>28.11</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.455</v>
+        <v>10.49</v>
       </c>
       <c r="K9" t="n">
-        <v>8.949999999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.38</v>
+        <v>9.16</v>
       </c>
       <c r="C10" t="n">
-        <v>16.765</v>
+        <v>20.83</v>
       </c>
       <c r="D10" t="n">
-        <v>6.205</v>
+        <v>4.82</v>
       </c>
       <c r="E10" t="n">
-        <v>1.125</v>
+        <v>1.12</v>
       </c>
       <c r="F10" t="n">
-        <v>10.125</v>
+        <v>10.86</v>
       </c>
       <c r="G10" t="n">
-        <v>7.225</v>
+        <v>7.94</v>
       </c>
       <c r="H10" t="n">
-        <v>9.029999999999999</v>
+        <v>10.26</v>
       </c>
       <c r="I10" t="n">
-        <v>9.455</v>
+        <v>8.42</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.865</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.995</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>10.68</v>
+        <v>12.79</v>
       </c>
       <c r="D11" t="n">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="E11" t="n">
-        <v>5.935</v>
+        <v>7.15</v>
       </c>
       <c r="F11" t="n">
-        <v>9.25</v>
+        <v>9.42</v>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>0.99</v>
       </c>
       <c r="H11" t="n">
-        <v>10.29</v>
+        <v>11.79</v>
       </c>
       <c r="I11" t="n">
-        <v>8.949999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="J11" t="n">
-        <v>10.865</v>
+        <v>10.76</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14.21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-7.799469422663369</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.141189936795183</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-4.554949348666679</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.701056582661159</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.123392594357698</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.096592374915766</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9222822985622993</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.876074559792329</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.963382455732917</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.09423382545815</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.955518920692754</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.866262585237406</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.211149954516699</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-1.268214538760136</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.704597063149724</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.311067698435567</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.3470682828346278</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.538580244726234</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.21861094349125</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.437352125672342</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="D2" t="n">
-        <v>9.16</v>
+        <v>13.65</v>
       </c>
       <c r="E2" t="n">
-        <v>11.46</v>
+        <v>14.29</v>
       </c>
       <c r="F2" t="n">
-        <v>7.6</v>
+        <v>16.28</v>
       </c>
       <c r="G2" t="n">
-        <v>9.609999999999999</v>
+        <v>15.52</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
       <c r="I2" t="n">
-        <v>6.23</v>
+        <v>15.76</v>
       </c>
       <c r="J2" t="n">
-        <v>11.37</v>
+        <v>15.9</v>
       </c>
       <c r="K2" t="n">
-        <v>8.949999999999999</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.75</v>
+        <v>8.34</v>
       </c>
       <c r="E3" t="n">
-        <v>8.06</v>
+        <v>14.26</v>
       </c>
       <c r="F3" t="n">
-        <v>4.19</v>
+        <v>23.4</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>15.04</v>
       </c>
       <c r="H3" t="n">
-        <v>3.19</v>
+        <v>2.57</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>11.88</v>
       </c>
       <c r="J3" t="n">
-        <v>7.96</v>
+        <v>16.27</v>
       </c>
       <c r="K3" t="n">
-        <v>5.55</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.16</v>
+        <v>13.65</v>
       </c>
       <c r="C4" t="n">
-        <v>5.75</v>
+        <v>8.34</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.3</v>
+        <v>3.76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>7.65</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45</v>
+        <v>1.93</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56</v>
+        <v>5.99</v>
       </c>
       <c r="I4" t="n">
-        <v>2.93</v>
+        <v>6.73</v>
       </c>
       <c r="J4" t="n">
-        <v>2.21</v>
+        <v>6.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.46</v>
+        <v>14.29</v>
       </c>
       <c r="C5" t="n">
-        <v>8.06</v>
+        <v>14.26</v>
       </c>
       <c r="D5" t="n">
-        <v>2.3</v>
+        <v>3.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.86</v>
+        <v>10.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>4.86</v>
+        <v>7.22</v>
       </c>
       <c r="I5" t="n">
-        <v>5.23</v>
+        <v>11.48</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09</v>
+        <v>1.13</v>
       </c>
       <c r="K5" t="n">
-        <v>2.51</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.6</v>
+        <v>16.28</v>
       </c>
       <c r="C6" t="n">
-        <v>4.19</v>
+        <v>23.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.56</v>
+        <v>7.65</v>
       </c>
       <c r="E6" t="n">
-        <v>3.86</v>
+        <v>10.64</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.01</v>
+        <v>5.89</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>15.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="J6" t="n">
-        <v>3.77</v>
+        <v>10.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.35</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.609999999999999</v>
+        <v>15.52</v>
       </c>
       <c r="C7" t="n">
-        <v>6.2</v>
+        <v>15.04</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45</v>
+        <v>1.93</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="F7" t="n">
-        <v>2.01</v>
+        <v>5.89</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.01</v>
+        <v>6.53</v>
       </c>
       <c r="I7" t="n">
-        <v>3.38</v>
+        <v>4.74</v>
       </c>
       <c r="J7" t="n">
-        <v>1.76</v>
+        <v>7.19</v>
       </c>
       <c r="K7" t="n">
-        <v>0.66</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
       <c r="C8" t="n">
-        <v>3.19</v>
+        <v>2.57</v>
       </c>
       <c r="D8" t="n">
-        <v>2.56</v>
+        <v>5.99</v>
       </c>
       <c r="E8" t="n">
-        <v>4.86</v>
+        <v>7.22</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>15.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.01</v>
+        <v>6.53</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.37</v>
+        <v>21.82</v>
       </c>
       <c r="J8" t="n">
-        <v>4.77</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>2.35</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.23</v>
+        <v>15.76</v>
       </c>
       <c r="C9" t="n">
-        <v>2.82</v>
+        <v>11.88</v>
       </c>
       <c r="D9" t="n">
-        <v>2.93</v>
+        <v>6.73</v>
       </c>
       <c r="E9" t="n">
-        <v>5.23</v>
+        <v>11.48</v>
       </c>
       <c r="F9" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>3.38</v>
+        <v>4.74</v>
       </c>
       <c r="H9" t="n">
-        <v>0.37</v>
+        <v>21.82</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.14</v>
+        <v>9.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.72</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.37</v>
+        <v>15.9</v>
       </c>
       <c r="C10" t="n">
-        <v>7.96</v>
+        <v>16.27</v>
       </c>
       <c r="D10" t="n">
-        <v>2.21</v>
+        <v>6.05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09</v>
+        <v>1.13</v>
       </c>
       <c r="F10" t="n">
-        <v>3.77</v>
+        <v>10.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>7.19</v>
       </c>
       <c r="H10" t="n">
-        <v>4.77</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>5.14</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.42</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.949999999999999</v>
+        <v>14.96</v>
       </c>
       <c r="C11" t="n">
-        <v>5.55</v>
+        <v>10.47</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="E11" t="n">
-        <v>2.51</v>
+        <v>5.81</v>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>9.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.66</v>
+        <v>1.52</v>
       </c>
       <c r="H11" t="n">
-        <v>2.35</v>
+        <v>10.18</v>
       </c>
       <c r="I11" t="n">
-        <v>2.72</v>
+        <v>8.26</v>
       </c>
       <c r="J11" t="n">
-        <v>2.42</v>
+        <v>10.87</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
